--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -115,40 +115,70 @@
     <t>Item</t>
   </si>
   <si>
-    <t>道具配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbSkill</t>
-  </si>
-  <si>
-    <t>SkillBaseConfig</t>
-  </si>
-  <si>
-    <t>技能基础配置表@技能配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBuff</t>
-  </si>
-  <si>
-    <t>BuffConfig</t>
-  </si>
-  <si>
-    <t>Buff基础配置表@Buff配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBuffAttr</t>
-  </si>
-  <si>
-    <t>BuffAttrConfig</t>
-  </si>
-  <si>
-    <t>Buff数值配置表@Buff配置表.xlsx</t>
+    <t>item.xlsx</t>
+  </si>
+  <si>
+    <t>equipment.TbEquipment</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>equipment.xlsx</t>
+  </si>
+  <si>
+    <t>itemBackGround.TbItemBgGround</t>
+  </si>
+  <si>
+    <t>ItemBgGround</t>
+  </si>
+  <si>
+    <t>itemBackGround.xlsx</t>
+  </si>
+  <si>
+    <t>enemySpine.TbEnemySpine</t>
+  </si>
+  <si>
+    <t>EnemySpine</t>
+  </si>
+  <si>
+    <t>enemySpine.xlsx</t>
+  </si>
+  <si>
+    <t>enemyConfig.TbEnemyConfig</t>
+  </si>
+  <si>
+    <t>EnemyConfig</t>
+  </si>
+  <si>
+    <t>enemyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>item1.TbItem1</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>item1.xlsx</t>
+  </si>
+  <si>
+    <t>equipmentBase.TbEquipmentBase</t>
+  </si>
+  <si>
+    <t>EquipmentBase.xlsx</t>
+  </si>
+  <si>
+    <t>itemBackGround1.TbItemBgGround1</t>
+  </si>
+  <si>
+    <t>itemBackGround1.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -173,53 +203,17 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +258,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -302,7 +311,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,49 +353,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,115 +485,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,21 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,6 +570,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,148 +643,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,61 +792,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1087,20 +1117,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-    <col min="5" max="5" width="51.125" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1237,13 +1267,13 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1257,8 +1287,64 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>itemBackGround1.xlsx</t>
+  </si>
+  <si>
+    <t>fightingBase.TbFightingBase</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>FightingBase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1347,6 +1356,20 @@
         <v>52</v>
       </c>
     </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>FightingBase.xlsx</t>
+  </si>
+  <si>
+    <t>initialRoleAttrieBase.TbInitialRoleAttrieBase</t>
+  </si>
+  <si>
+    <t>InitialRoleAttrie</t>
+  </si>
+  <si>
+    <t>InitialRoleAttrieBase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1370,6 +1379,20 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>InitialRoleAttrieBase.xlsx</t>
+  </si>
+  <si>
+    <t>swordSkillBase.TbSwordSkillBase</t>
+  </si>
+  <si>
+    <t>SwordSkill</t>
+  </si>
+  <si>
+    <t>SwordSkillBase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1135,16 +1144,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
@@ -1393,6 +1402,20 @@
         <v>58</v>
       </c>
     </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>SwordSkillBase.xlsx</t>
+  </si>
+  <si>
+    <t>enemySkillBase.TbEnemySkillBase</t>
+  </si>
+  <si>
+    <t>EnemySkill</t>
+  </si>
+  <si>
+    <t>EnemySkillBase.xlsx</t>
+  </si>
+  <si>
+    <t>enemyModelBase.TbEnemyModelBase</t>
+  </si>
+  <si>
+    <t>EnemyModel</t>
+  </si>
+  <si>
+    <t>EnemyModelBase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1144,16 +1162,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
@@ -1416,6 +1434,34 @@
         <v>61</v>
       </c>
     </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:5">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="18288" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -218,12 +231,21 @@
   </si>
   <si>
     <t>EnemyModelBase.xlsx</t>
+  </si>
+  <si>
+    <t>vFXSkillModelBase.TBVFXSkillModelBase</t>
+  </si>
+  <si>
+    <t>VFXSkillModel</t>
+  </si>
+  <si>
+    <t>VFXSkillModelBase.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1162,16 +1184,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
@@ -1462,6 +1484,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>VFXSkillModelBase.xlsx</t>
+  </si>
+  <si>
+    <t>NpcConfigBase.TBNpcConfigBase</t>
+  </si>
+  <si>
+    <t>NpcConfig</t>
+  </si>
+  <si>
+    <t>NpcConfigBase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1498,6 +1507,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
